--- a/P0092/09_FICHAS/N3-FD-General.xlsx
+++ b/P0092/09_FICHAS/N3-FD-General.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28318"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\S3_Buckets\foa-prod-comp-fenomenologico-bucket\foa_puj_curada\P0092\09_FICHAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB6ABE0A-9931-47EC-BBA3-01B6F6B1018E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="249" documentId="13_ncr:1_{AB6ABE0A-9931-47EC-BBA3-01B6F6B1018E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{801D12A6-568C-4210-AE42-B0A5B29C6E97}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="236">
   <si>
     <t>CODIGO DE PROYECTO</t>
   </si>
@@ -84,47 +95,681 @@
     <t>R0001</t>
   </si>
   <si>
-    <t>Sistema de Estadísticas Territoriales del Departamento Nacional de Planeación</t>
+    <t>TerriData_Dim1</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0092/02_PRODUCTOS/DNP/Dimensiones/TerriData_Dim1.xlsx/TerriData_Dim1.xlsx</t>
   </si>
   <si>
     <t>Departamento Nacional de Planeación</t>
   </si>
   <si>
-    <t>Estadísticas del país para analizar el estado y control de la gestión pública, para desarrollar planificación, definición de metas y líneas base de los planes de las entidades territoriales.</t>
-  </si>
-  <si>
-    <t>Carpeta</t>
-  </si>
-  <si>
-    <t>.xlsx</t>
+    <t>Estadísticas del país para analizar el estado y control de la gestión pública, para desarrollar planificación, definición de metas y líneas base de los planes de las entidades territoriales. Contiene bases de datos (.xlsx) de estadísticas y proyecciones de: Categoría de ruralidad, categoría ley 617 de 2000, código DANE, código DANE, densidad poblacional, extensión y población total</t>
+  </si>
+  <si>
+    <t>Base de datos</t>
+  </si>
+  <si>
+    <t>xlsx</t>
   </si>
   <si>
     <t>NA</t>
   </si>
   <si>
-    <t>Tabla</t>
-  </si>
-  <si>
-    <t>Contiene bases de datos (.xlsx) de estadísticas por cada dimensión de gestión pública.</t>
-  </si>
-  <si>
-    <t>Dimensiones, Estadísticas Territoriales, Municipios, Entidad Territorial, Gestión Pública, OCDE.</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0092/02_PRODUCTOS/DNP/Dimensiones</t>
+    <t>Información del censo de toda Colombia, dividida por departamentos y municipios. Se puede filtrar los departamentos de la Mojana para toma de decisiones</t>
+  </si>
+  <si>
+    <t>Categoría de ruralidad, categoría ley 617 de 2000, código DANE, extensión, población total, densidad poblacional, variación porcentual intercensal - 2005 2018</t>
+  </si>
+  <si>
+    <t>R0002</t>
+  </si>
+  <si>
+    <t>TerriData_Dim2_Sub1</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0092/02_PRODUCTOS/DNP/Dimensiones/TerriData_Dim2.xlsx/TerriData_Dim2_Sub1.xlsx</t>
+  </si>
+  <si>
+    <t>Estadísticas del país para analizar el estado y control de la gestión pública, para desarrollar planificación, definición de metas y líneas base de los planes de las entidades territoriales. Contiene bases de datos (.xlsx) de estadísticas y proyecciones de: Población</t>
+  </si>
+  <si>
+    <t>Demografia y población, población de hombres, departamentos, municipios, Colombia</t>
+  </si>
+  <si>
+    <t>R0003</t>
+  </si>
+  <si>
+    <t>TerriData_Dim11</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0092/02_PRODUCTOS/DNP/Dimensiones/TerriData_Dim11.xlsx/TerriData_Dim11.xlsx</t>
+  </si>
+  <si>
+    <t>Ambiente, biodiversidad y servicios ecosistémicos, areas protegidas, ecosistemas estratégicos, gases efecto invernadero, gestión de riesgo, vulnerabilidad, areas amenazadas, cambio climático, municipios, departamentos</t>
+  </si>
+  <si>
+    <t>R0004</t>
+  </si>
+  <si>
+    <t>TerriData_Dim12</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0092/02_PRODUCTOS/DNP/Dimensiones/TerriData_Dim12.xlsx/TerriData_Dim12.xlsx</t>
+  </si>
+  <si>
+    <t>Economía, valor agregado base 2015,  municipios, departamentos</t>
+  </si>
+  <si>
+    <t>R0005</t>
+  </si>
+  <si>
+    <t>TerriData_Dim13</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0092/02_PRODUCTOS/DNP/Dimensiones/TerriData_Dim13.xlsx/TerriData_Dim13.xlsx</t>
+  </si>
+  <si>
+    <t>Presupuesto general de la nación, PGN departamental, PGN per capita, departamentos</t>
+  </si>
+  <si>
+    <t>R0006</t>
+  </si>
+  <si>
+    <t>TerriData_Dim14</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0092/02_PRODUCTOS/DNP/Dimensiones/TerriData_Dim14.xlsx/TerriData_Dim14.xlsx</t>
+  </si>
+  <si>
+    <t>Pobreza, indicadores de pobreza, departamentos</t>
+  </si>
+  <si>
+    <t>R0007</t>
+  </si>
+  <si>
+    <t>TerriData_Dim15</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0092/02_PRODUCTOS/DNP/Dimensiones/TerriData_Dim15.xlsx/TerriData_Dim15.xlsx</t>
+  </si>
+  <si>
+    <t>Ordenamiento territorial, intrumentos de ordenamiento territorial, catastro, expansión urbana, municipios, departamentos</t>
+  </si>
+  <si>
+    <t>R0008</t>
+  </si>
+  <si>
+    <t>TerriData_Dim16</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0092/02_PRODUCTOS/DNP/Dimensiones/TerriData_Dim16.xlsx/TerriData_Dim16.xlsx</t>
+  </si>
+  <si>
+    <t>Mercado laboral, trabajadores cotizantes al sistema de seguridad social, municipios, departamentos</t>
+  </si>
+  <si>
+    <t>R0009</t>
+  </si>
+  <si>
+    <t>TerriData_Dim19</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0092/02_PRODUCTOS/DNP/Dimensiones/TerriData_Dim19.xlsx/TerriData_Dim19.xlsx</t>
+  </si>
+  <si>
+    <t>Justicia y derecho, municipios, departamentos</t>
+  </si>
+  <si>
+    <t>R0010</t>
+  </si>
+  <si>
+    <t>TerriData_Dim20</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0092/02_PRODUCTOS/DNP/Dimensiones/TerriData_Dim20.xlsx/TerriData_Dim20.xlsx</t>
+  </si>
+  <si>
+    <t>Seguridad integral maritima y fluvial, minicipios, departamentos</t>
+  </si>
+  <si>
+    <t>R0011</t>
+  </si>
+  <si>
+    <t>TerriData_Dim22</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0092/02_PRODUCTOS/DNP/Dimensiones/TerriData_Dim22.xlsx/TerriData_Dim22.xlsx</t>
+  </si>
+  <si>
+    <t>Medición de desempeño departamental, departamentos</t>
+  </si>
+  <si>
+    <t>R0012</t>
+  </si>
+  <si>
+    <t>TerriData_Dim25_Sub1</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0092/02_PRODUCTOS/DNP/Dimensiones/TerriData_Dim25.xlsx/TerriData_Dim25_Sub1.xlsx</t>
+  </si>
+  <si>
+    <t>Censo 2005 y proyecciones DANE, población hombres, municipio, departamentos, Colombia</t>
+  </si>
+  <si>
+    <t>R0013</t>
+  </si>
+  <si>
+    <t>TerriData_Dim26</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0092/02_PRODUCTOS/DNP/Dimensiones/TerriData_Dim26.xlsx/TerriData_Dim26.xlsx</t>
+  </si>
+  <si>
+    <t>Paz y victimas, restitución de tierras, municipios, departamentos, Colombia</t>
+  </si>
+  <si>
+    <t>R0014</t>
+  </si>
+  <si>
+    <t>TerriData_Dim27</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0092/02_PRODUCTOS/DNP/Dimensiones/TerriData_Dim27.xlsx/TerriData_Dim27.xlsx</t>
+  </si>
+  <si>
+    <t>Cultura, Infraestructura para la cultura, Biblioteca, Dotaciones, Estimulos e incentivos para la cultura, Operatividad consejo de cultura, municipios, departamentos</t>
+  </si>
+  <si>
+    <t>R0015</t>
+  </si>
+  <si>
+    <t>TerriData_Dim28</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0092/02_PRODUCTOS/DNP/Dimensiones/TerriData_Dim28.xlsx/TerriData_Dim28.xlsx</t>
+  </si>
+  <si>
+    <t>Turismo, municipios, departamentos, Colombia</t>
+  </si>
+  <si>
+    <t>R0016</t>
+  </si>
+  <si>
+    <t>TerriData_Dim29</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0092/02_PRODUCTOS/DNP/Dimensiones/TerriData_Dim29.xlsx/TerriData_Dim29.xlsx</t>
+  </si>
+  <si>
+    <t>Ciencia, Tecnologia, Innovación, Inversión en ciencia y tecnologia, departamentos</t>
+  </si>
+  <si>
+    <t>R0017</t>
+  </si>
+  <si>
+    <t>TerriData_Dim3</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0092/02_PRODUCTOS/DNP/Dimensiones/TerriData_Dim3.xlsx/TerriData_Dim3.xlsx</t>
+  </si>
+  <si>
+    <t>Vivienda y Acceso a serviciós públicos, municipios, departamentos, Colombia</t>
+  </si>
+  <si>
+    <t>R0018</t>
+  </si>
+  <si>
+    <t>TerriData_Dim4</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0092/02_PRODUCTOS/DNP/Dimensiones/TerriData_Dim4.xlsx/TerriData_Dim4.xlsx</t>
+  </si>
+  <si>
+    <t>Educación, acceso a la educación, municipios, departamentos, Colombia</t>
+  </si>
+  <si>
+    <t>R0019</t>
+  </si>
+  <si>
+    <t>TerriData_Dim5</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0092/02_PRODUCTOS/DNP/Dimensiones/TerriData_Dim5.xlsx/TerriData_Dim5.xlsx</t>
+  </si>
+  <si>
+    <t>Salud, afiliados al regimen contributivo, municipios, departamentos, Colombia</t>
+  </si>
+  <si>
+    <t>R0020</t>
+  </si>
+  <si>
+    <t>TerriData_Dim6</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0092/02_PRODUCTOS/DNP/Dimensiones/TerriData_Dim6.xlsx/TerriData_Dim6.xlsx</t>
+  </si>
+  <si>
+    <t>Convivencia y seguridad ciudadana, seguridad, tasa de hurto, municipios, departamentos, Colombia</t>
+  </si>
+  <si>
+    <t>R0021</t>
+  </si>
+  <si>
+    <t>TerriData_Dim7_Sub1</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0092/02_PRODUCTOS/DNP/Dimensiones/TerriData_Dim7.xlsx/TerriData_Dim7_Sub1.xlsx</t>
+  </si>
+  <si>
+    <t>Finanzas públicas, Operaciones efectivas de caja, Ingresos, Gastos, Funcionamiento, Intereses, Deficit, Inversión, Financiamiento, municipios, departamentos, Colombia</t>
+  </si>
+  <si>
+    <t>R0022</t>
+  </si>
+  <si>
+    <t>TerriData_Dim8</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0092/02_PRODUCTOS/DNP/Dimensiones/TerriData_Dim8.xlsx/TerriData_Dim8.xlsx</t>
+  </si>
+  <si>
+    <t>Medición de desempeño municipal, resumen MDM, municipios, departamentos</t>
+  </si>
+  <si>
+    <t>R0023</t>
+  </si>
+  <si>
+    <t>TerriData_Dim2_Sub2</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0092/02_PRODUCTOS/DNP/Dimensiones/TerriData_Dim2.xlsx/TerriData_Dim2_Sub2.xlsx</t>
+  </si>
+  <si>
+    <t>Demografia y población, población de mujeres, departamentos, municipios, Colombia</t>
+  </si>
+  <si>
+    <t>R0024</t>
+  </si>
+  <si>
+    <t>TerriData_Dim2_Sub3</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0092/02_PRODUCTOS/DNP/Dimensiones/TerriData_Dim2.xlsx/TerriData_Dim2_Sub3.xlsx</t>
+  </si>
+  <si>
+    <t>Demografia y población, población desagregada por sexo, departamentos, municipios Colombia</t>
+  </si>
+  <si>
+    <t>R0025</t>
+  </si>
+  <si>
+    <t>TerriData_Dim2_Sub4</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0092/02_PRODUCTOS/DNP/Dimensiones/TerriData_Dim2.xlsx/TerriData_Dim2_Sub4.xlsx</t>
+  </si>
+  <si>
+    <t>Demografia y población, población desagregada por área, departamentos, municipios, Colombia</t>
+  </si>
+  <si>
+    <t>R0026</t>
+  </si>
+  <si>
+    <t>TerriData_Dim2_Sub5</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0092/02_PRODUCTOS/DNP/Dimensiones/TerriData_Dim2.xlsx/TerriData_Dim2_Sub5.xlsx</t>
+  </si>
+  <si>
+    <t>Demografia y población, población étnica, indigena, raizal, rom, palenquero, municipios, departamentos, Colombia</t>
+  </si>
+  <si>
+    <t>R0027</t>
+  </si>
+  <si>
+    <t>TerriData_Dim2_Sub6</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0092/02_PRODUCTOS/DNP/Dimensiones/TerriData_Dim2.xlsx/TerriData_Dim2_Sub6.xlsx</t>
+  </si>
+  <si>
+    <t>Demografia y población, información Sisben III, municipios, departamentos, Colombia</t>
+  </si>
+  <si>
+    <t>R0028</t>
+  </si>
+  <si>
+    <t>TerriData_Dim2_Sub7</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0092/02_PRODUCTOS/DNP/Dimensiones/TerriData_Dim2.xlsx/TerriData_Dim2_Sub7.xlsx</t>
+  </si>
+  <si>
+    <t>Demografia y población, comportamiento Puntaje Sisben, municipios, departamentos, Colombia</t>
+  </si>
+  <si>
+    <t>R0029</t>
+  </si>
+  <si>
+    <t>TerriData_Dim2_Sub8</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0092/02_PRODUCTOS/DNP/Dimensiones/TerriData_Dim2.xlsx/TerriData_Dim2_Sub8.xlsx</t>
+  </si>
+  <si>
+    <t>Demografia y población, población total, grupos quinquenales de edad, municipios, departemanentos, Colombia</t>
+  </si>
+  <si>
+    <t>R0030</t>
+  </si>
+  <si>
+    <t>TerriData_Dim2_Sub9</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0092/02_PRODUCTOS/DNP/Dimensiones/TerriData_Dim2.xlsx/TerriData_Dim2_Sub9.xlsx</t>
+  </si>
+  <si>
+    <t>Demografia y población, edades, municipios, departamentos, Colombia</t>
+  </si>
+  <si>
+    <t>R0031</t>
+  </si>
+  <si>
+    <t>TerriData_Dim2_Sub10</t>
+  </si>
+  <si>
+    <t>Demografia y población, migración hombres, migración mujeres, municipios, departamentos, Colombia</t>
+  </si>
+  <si>
+    <t>R0032</t>
+  </si>
+  <si>
+    <t>TerriData_Dim2_Sub11</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0092/02_PRODUCTOS/DNP/Dimensiones/TerriData_Dim2.xlsx/TerriData_Dim2_Sub11.xlsx</t>
+  </si>
+  <si>
+    <t>Demografia y población, información Sisben IV, municipios, departamentos, Colombia</t>
+  </si>
+  <si>
+    <t>R0033</t>
+  </si>
+  <si>
+    <t>TerriData_Dim7_Sub2</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0092/02_PRODUCTOS/DNP/Dimensiones/TerriData_Dim7.xlsx/TerriData_Dim7_Sub2.xlsx</t>
+  </si>
+  <si>
+    <t>Finanzas públicas, resumen de recursos, total de recursos adignados per capita, municipios, departamentos, Colombia</t>
+  </si>
+  <si>
+    <t>R0034</t>
+  </si>
+  <si>
+    <t>TerriData_Dim7_Sub3</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0092/02_PRODUCTOS/DNP/Dimensiones/TerriData_Dim7.xlsx/TerriData_Dim7_Sub3.xlsx</t>
+  </si>
+  <si>
+    <t>Finanzas públicas, asignación de recursos SGR, municipios, departamentos, Colombia</t>
+  </si>
+  <si>
+    <t>R0035</t>
+  </si>
+  <si>
+    <t>TerriData_Dim7_Sub4</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0092/02_PRODUCTOS/DNP/Dimensiones/TerriData_Dim7.xlsx/TerriData_Dim7_Sub4.xlsx</t>
+  </si>
+  <si>
+    <t>Finanzas públicas, cantidad y monto proyectos regalias, municipios, departamentos, Colombia</t>
+  </si>
+  <si>
+    <t>R0036</t>
+  </si>
+  <si>
+    <t>TerriData_Dim7_Sub5</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0092/02_PRODUCTOS/DNP/Dimensiones/TerriData_Dim7.xlsx/TerriData_Dim7_Sub5.xlsx</t>
+  </si>
+  <si>
+    <t>Finanzas públicas, Índice de gestión de proyectos de regalías (IGPR), SGR - IGPR, componente eficacia, componente transparencia, componente eficiencia, municipios, departamentos, Colombia</t>
+  </si>
+  <si>
+    <t>R0037</t>
+  </si>
+  <si>
+    <t>TerriData_Dim7_Sub6</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0092/02_PRODUCTOS/DNP/Dimensiones/TerriData_Dim7.xlsx/TerriData_Dim7_Sub6.xlsx</t>
+  </si>
+  <si>
+    <t>Finanzas públicas, saldos SGR, municipios, departamentos, Colombia</t>
+  </si>
+  <si>
+    <t>R0038</t>
+  </si>
+  <si>
+    <t>TerriData_Dim7_Sub7</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0092/02_PRODUCTOS/DNP/Dimensiones/TerriData_Dim7.xlsx/TerriData_Dim7_Sub7.xlsx</t>
+  </si>
+  <si>
+    <t>Finanzas públicas, asignación de recursos, salud, educación, agua potable, alimentación escolar, ribereños, resguardos, primera infancia, municipios, departamentos, Colombia</t>
+  </si>
+  <si>
+    <t>R0039</t>
+  </si>
+  <si>
+    <t>TerriData_Dim7_Sub8</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0092/02_PRODUCTOS/DNP/Dimensiones/TerriData_Dim7.xlsx/TerriData_Dim7_Sub8.xlsx</t>
+  </si>
+  <si>
+    <t>Finanzas públicas, asignación de rejecución presupuestal por sector SGR, educación, salud, agua, libre destinación, deporte, cultura, alimentación escolar, total  SGP, municipios, departamentos, Colombia</t>
+  </si>
+  <si>
+    <t>R0040</t>
+  </si>
+  <si>
+    <t>TerriData_Dim7_Sub9</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0092/02_PRODUCTOS/DNP/Dimensiones/TerriData_Dim7.xlsx/TerriData_Dim7_Sub9.xlsx</t>
+  </si>
+  <si>
+    <t>Finanzas públicas, recursos propios, municipios, departamentos, Colombia</t>
+  </si>
+  <si>
+    <t>R0041</t>
+  </si>
+  <si>
+    <t>TerriData_Dim7_Sub10</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0092/02_PRODUCTOS/DNP/Dimensiones/TerriData_Dim7.xlsx/TerriData_Dim7_Sub10.xlsx</t>
+  </si>
+  <si>
+    <t>Finanzas públicas, desempeño fiscal, municipios, departamentos, Colombia</t>
+  </si>
+  <si>
+    <t>R0042</t>
+  </si>
+  <si>
+    <t>TerriData_Dim7_Sub11</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0092/02_PRODUCTOS/DNP/Dimensiones/TerriData_Dim7.xlsx/TerriData_Dim7_Sub11.xlsx</t>
+  </si>
+  <si>
+    <t>Finanzas públicas, Distribución porcentual de asignaciones SGP por sectores, educación, salud, agua potable, alimentación escolar, resguardos indigenas, ribereños, primera infancia, municipios, departamentos, Colombia</t>
+  </si>
+  <si>
+    <t>R0043</t>
+  </si>
+  <si>
+    <t>TerriData_Dim7_Sub12</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0092/02_PRODUCTOS/DNP/Dimensiones/TerriData_Dim7.xlsx/TerriData_Dim7_Sub12.xlsx</t>
+  </si>
+  <si>
+    <t>Finanzas públicas, inversión por sectores, municipios, departamentos, Colombia</t>
+  </si>
+  <si>
+    <t>R0044</t>
+  </si>
+  <si>
+    <t>TerriData_Dim7_Sub13</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0092/02_PRODUCTOS/DNP/Dimensiones/TerriData_Dim7.xlsx/TerriData_Dim7_Sub13.xlsx</t>
+  </si>
+  <si>
+    <t>Finanzas públicas, nuevo índice de desempeño fiscal, municipios, departamentos, Colombia</t>
+  </si>
+  <si>
+    <t>R0045</t>
+  </si>
+  <si>
+    <t>TerriData_Dim7_Sub14</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0092/02_PRODUCTOS/DNP/Dimensiones/TerriData_Dim7.xlsx/TerriData_Dim7_Sub14.xlsx</t>
+  </si>
+  <si>
+    <t>Finanzas públicas,  SGR nuevo IGPR, municipios, departamentos, Colombia</t>
+  </si>
+  <si>
+    <t>R0046</t>
+  </si>
+  <si>
+    <t>TerriData_Dim7_Sub15</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0092/02_PRODUCTOS/DNP/Dimensiones/TerriData_Dim7.xlsx/TerriData_Dim7_Sub15.xlsx</t>
+  </si>
+  <si>
+    <t>Finanzas públicas,  Proyectos sistema general de regalias SGR, municipios, departamentos, Colombia</t>
+  </si>
+  <si>
+    <t>R0047</t>
+  </si>
+  <si>
+    <t>TerriData_Dim25_Sub2</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0092/02_PRODUCTOS/DNP/Dimensiones/TerriData_Dim25.xlsx/TerriData_Dim25_Sub2.xlsx</t>
+  </si>
+  <si>
+    <t>Censo 2005 y proyecciones DANE, población mujeres, municipio, departamentos, Colombia</t>
+  </si>
+  <si>
+    <t>R0048</t>
+  </si>
+  <si>
+    <t>TerriData_Dim25_Sub3</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0092/02_PRODUCTOS/DNP/Dimensiones/TerriData_Dim25.xlsx/TerriData_Dim25_Sub3.xlsx</t>
+  </si>
+  <si>
+    <t>Censo 2005 y proyecciones DANE, población desagregada por sexos, municipio, departamentos, Colombia</t>
+  </si>
+  <si>
+    <t>R0049</t>
+  </si>
+  <si>
+    <t>TerriData_Dim25_Sub4</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0092/02_PRODUCTOS/DNP/Dimensiones/TerriData_Dim25.xlsx/TerriData_Dim25_Sub4.xlsx</t>
+  </si>
+  <si>
+    <t>Censo 2005 y proyecciones DANE, población desagregada por área, municipio, departamentos, Colombia</t>
+  </si>
+  <si>
+    <t>R0050</t>
+  </si>
+  <si>
+    <t>TerriData_Dim25_Sub5</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0092/02_PRODUCTOS/DNP/Dimensiones/TerriData_Dim25.xlsx/TerriData_Dim25_Sub5.xlsx</t>
+  </si>
+  <si>
+    <t>Censo 2005 y proyecciones DANE, población étnica, indigena, rom, raizal, palenquero, negra, mulata, afrocolombiana, municipio, departamentos, Colombia</t>
+  </si>
+  <si>
+    <t>R0051</t>
+  </si>
+  <si>
+    <t>TerriData_Dim25_Sub8</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0092/02_PRODUCTOS/DNP/Dimensiones/TerriData_Dim25.xlsx/TerriData_Dim25_Sub8.xlsx</t>
+  </si>
+  <si>
+    <t>Censo 2005 y proyecciones DANE, población, grupos quinquenales de edad, municipio, departamentos, Colombia</t>
+  </si>
+  <si>
+    <t>R0052</t>
+  </si>
+  <si>
+    <t>TerriData_Dim25_Sub9</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0092/02_PRODUCTOS/DNP/Dimensiones/TerriData_Dim25.xlsx/TerriData_Dim25_Sub9.xlsx</t>
+  </si>
+  <si>
+    <t>Censo 2005 y proyecciones DANE, población mayor y menor de edad, municipio, departamentos, Colombia</t>
+  </si>
+  <si>
+    <t>R0053</t>
+  </si>
+  <si>
+    <t>TerriData_Dim25_Sub10</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0092/02_PRODUCTOS/DNP/Dimensiones/TerriData_Dim25.xlsx/TerriData_Dim25_Sub10.xlsx</t>
+  </si>
+  <si>
+    <t>Censo 2005 y proyecciones DANE, población total, densidad poblacional, municipio, departamentos, Colombia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF242424"/>
+      <name val="Aptos Narrow"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -135,7 +780,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -145,26 +790,84 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,15 +1148,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:Q54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="22.28515625" customWidth="1"/>
+    <col min="5" max="5" width="142.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -496,14 +1203,14 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="8" t="s">
         <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -517,40 +1224,2641 @@
         <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2024</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="1">
-        <v>2024</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>27</v>
+      <c r="D3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2024</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2024</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2024</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2024</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2024</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2024</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2024</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2024</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2024</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2024</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O12" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2024</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="1">
+        <v>2024</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O14" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" s="1">
+        <v>2024</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O15" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" s="1">
+        <v>2024</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O16" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17" s="1">
+        <v>2024</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O17" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F18" s="1">
+        <v>2024</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O18" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F19" s="1">
+        <v>2024</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O19" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F20" s="1">
+        <v>2024</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O20" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F21" s="1">
+        <v>2024</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O21" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F22" s="1">
+        <v>2024</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O22" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F23" s="5">
+        <v>2024</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N23" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O23" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F24" s="1">
+        <v>2024</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O24" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F25" s="1">
+        <v>2024</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O25" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F26" s="5">
+        <v>2024</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O26" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F27" s="1">
+        <v>2024</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L27" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M27" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N27" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O27" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F28" s="1">
+        <v>2024</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O28" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F29" s="5">
+        <v>2024</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O29" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F30" s="1">
+        <v>2024</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O30" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F31" s="1">
+        <v>2024</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L31" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M31" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N31" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O31" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P31" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32" s="5">
+        <v>2024</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N32" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P32" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F33" s="1">
+        <v>2024</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N33" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P33" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F34" s="1">
+        <v>2024</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N34" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F35" s="5">
+        <v>2024</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N35" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F36" s="1">
+        <v>2024</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N36" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F37" s="1">
+        <v>2024</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L37" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M37" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N37" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F38" s="5">
+        <v>2024</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N38" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F39" s="1">
+        <v>2024</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N39" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F40" s="1">
+        <v>2024</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N40" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F41" s="5">
+        <v>2024</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N41" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F42" s="1">
+        <v>2024</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N42" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F43" s="1">
+        <v>2024</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K43" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L43" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M43" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N43" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F44" s="5">
+        <v>2024</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N44" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F45" s="1">
+        <v>2024</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N45" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F46" s="1">
+        <v>2024</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N46" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="F47" s="5">
+        <v>2024</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K47" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L47" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M47" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N47" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F48" s="1">
+        <v>2024</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P48" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q48" s="2"/>
+    </row>
+    <row r="49" spans="1:16">
+      <c r="A49" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F49" s="1">
+        <v>2024</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P49" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16">
+      <c r="A50" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F50" s="1">
+        <v>2024</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O50" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P50" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16">
+      <c r="A51" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F51" s="1">
+        <v>2024</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P51" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16">
+      <c r="A52" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F52" s="1">
+        <v>2024</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P52" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16">
+      <c r="A53" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F53" s="1">
+        <v>2024</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N53" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O53" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P53" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16">
+      <c r="A54" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F54" s="1">
+        <v>2024</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P54" s="2" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>

--- a/P0092/09_FICHAS/N3-FD-General.xlsx
+++ b/P0092/09_FICHAS/N3-FD-General.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28318"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28605"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\S3_Buckets\foa-prod-comp-fenomenologico-bucket\foa_puj_curada\P0092\09_FICHAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="249" documentId="13_ncr:1_{AB6ABE0A-9931-47EC-BBA3-01B6F6B1018E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{801D12A6-568C-4210-AE42-B0A5B29C6E97}"/>
+  <xr:revisionPtr revIDLastSave="251" documentId="13_ncr:1_{AB6ABE0A-9931-47EC-BBA3-01B6F6B1018E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A15BB08-87E3-4752-99E4-C5F93C0011CE}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -857,7 +857,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -868,6 +868,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1150,14 +1153,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="4" max="4" width="22.28515625" customWidth="1"/>
     <col min="5" max="5" width="142.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -1210,7 +1214,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" ht="15" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -1232,7 +1236,7 @@
       <c r="G2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="10" t="s">
         <v>22</v>
       </c>
       <c r="I2" s="1" t="s">
